--- a/股票交易策略.xlsx
+++ b/股票交易策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowHeight="17325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0_20241228" sheetId="2" r:id="rId1"/>
@@ -126,13 +126,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>低位成交量放大流
 （</t>
     </r>
@@ -160,6 +153,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>买入条件：</t>
     </r>
     <r>
@@ -232,6 +233,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">卖出条件：
 </t>
     </r>
@@ -1482,7 +1491,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1499,7 +1508,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/股票交易策略.xlsx
+++ b/股票交易策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17325" activeTab="1"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0_20241228" sheetId="2" r:id="rId1"/>
@@ -74,14 +74,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">买入条件：
 </t>
     </r>
@@ -101,14 +93,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">卖出条件：
 </t>
     </r>
@@ -126,6 +110,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>低位成交量放大流
 （</t>
     </r>
@@ -153,14 +144,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>买入条件：</t>
     </r>
     <r>
@@ -212,6 +195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>前置条件（要求全部符合）</t>
     </r>
     <r>
@@ -223,12 +213,13 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1. 当前股票的价格处于30交易日的地位25%
+1. 当前股票的价格不能高于30交易日最低价的125%
 2. 股票价格高于前5交易日的收盘平均价
 3. 成交量是20交易日内最大的
 4. 当天股票收盘价高于开盘价
 5. 当天成交量是20交易日平均成交量的1.5-2倍
-6. 第一次成交量高于20交易日的1.5倍</t>
+6. 第一次成交量高于20交易日的1.5倍
+7. 当前价格不高于历史500交易日收盘价均价的70%</t>
     </r>
   </si>
   <si>
@@ -1508,7 +1499,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
